--- a/medicine/Mort/Décès_en_1958/Décès_en_1958.xlsx
+++ b/medicine/Mort/Décès_en_1958/Décès_en_1958.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1958</t>
+          <t>Décès_en_1958</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1958</t>
+          <t>Décès_en_1958</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier : Edward Weston, photographe américain (° 24 mars 1886).
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : Edward Weston, photographe américain (° 24 mars 1886).
 9 janvier : Martti Similä, pianiste, chef d'orchestre, compositeur, directeur de théâtre, chanteur et acteur finlandais (° 9 avril 1898).
 12 janvier : Griff Barnett, acteur américain (° 12 novembre 1884).
 16 janvier : Aubrey Mather, acteur britannique  (° 17 décembre 1885).
@@ -537,9 +554,43 @@
 29 janvier : Léon Rudnicki, peintre, illustrateur et décorateur français (° 28 juillet 1873).
 30 janvier :
 Jean-Joseph Crotti, peintre suisse (° 24 avril 1878).
-Ernst Heinkel, constructeur d'avions allemand (° 24 janvier 1888).
-Février
-2 février : Walter Kingsford, acteur britannique (° 20 septembre 1882).
+Ernst Heinkel, constructeur d'avions allemand (° 24 janvier 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 février : Walter Kingsford, acteur britannique (° 20 septembre 1882).
 3 février : Paul Delaunay, médecin, botaniste et historien français (° 16 février 1878).
 4 février : Monta Bell, acteur, réalisateur et producteur de cinéma américain (° 5 février 1891).
 6 février : René Maxime Choquet, peintre et sculpteur français (° 1872}).
@@ -566,9 +617,43 @@
 20 février : Isidor Philipp, pianiste, pédagogue et compositeur français d'origine hongroise (° 2 septembre 1863).
 21 février : Henryk Arctowski, géologue, océanographe et météorologue polonais (° 15 juillet 1871).
 21 février : Mark Jones, footballeur anglais (° 15 juin 1933).
-22 février : Mathurin Méheut, peintre et illustrateur français (° 21 mai 1882).
-Mars
-1er mars : Giacomo Balla, peintre et sculpteur italien (° 18 juillet 1871).
+22 février : Mathurin Méheut, peintre et illustrateur français (° 21 mai 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er mars : Giacomo Balla, peintre et sculpteur italien (° 18 juillet 1871).
 6 mars : Roger Godchaux, peintre, dessinateur et sculpteur animalier français (° 21 décembre 1878).
 10 mars : Jack McCarthy, footballeur international irlandais (1898).
 12 mars : Bill Barnard, homme politique néo-zélandais (° 29 janvier 1886).
@@ -578,9 +663,43 @@
 28 mars :
 William Christopher Handy, chanteur et compositeur de blues américain (° 16 novembre 1873).
 Aladár Rácz, musicien hongrois, joueur de cimbalom (° 28 février 1886).
-30 mars : Charles Humbert, peintre, illustrateur et bibliophile suisse (° 4 mars 1891).
-Avril
-5 avril : Pé Verhaegen, coureur cycliste belge (° 20 février 1902).
+30 mars : Charles Humbert, peintre, illustrateur et bibliophile suisse (° 4 mars 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 avril : Pé Verhaegen, coureur cycliste belge (° 20 février 1902).
 8 avril : Gabriel Cabannes, avocat, écrivain et biographe français (° 10 octobre 1866).
 9 avril : José Manuel Ribeiro da Silva, coureur cycliste portugais (° 16 février 1935).
 10 avril : Henri Borde, peintre et sculpteur français (° 4 septembre 1888).
@@ -591,9 +710,43 @@
 Charles Perron, peintre français (° 22 août 1893).
 20 avril : René Vermandel, coureur cycliste belge (° 23 mars 1893).
 23 avril : Léon Devos, coureur cycliste belge (° 17 janvier 1896).
-25 avril : Iosif Iser, peintre roumain d'origine israélienne (° 21 mai 1881).
-Mai
-8 mai : Friedrich Gnaß, acteur allemand (° 13 novembre 1892).
+25 avril : Iosif Iser, peintre roumain d'origine israélienne (° 21 mai 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>8 mai : Friedrich Gnaß, acteur allemand (° 13 novembre 1892).
 11 mai : Charles-René Darrieux, peintre français (° 17 juillet 1879).
 15 mai : Edwin L. Hollywood, réalisateur américain (° 9 octobre 1892).
 17 mai : Robert Dessales-Quentin, peintre paysagiste et aquarelliste français (° 25 août 1885).
@@ -602,9 +755,43 @@
 21 mai : Caroline Muller, résistante française fondatrice d'une filière d'évasion aidant les prisonniers de guerre (PG) français, les Alsaciens réfractaires à l'incorporation de force, à s'évader (°30 novembre 1907).
 26 mai : Francis Carco,écrivain, poète, journaliste et auteur de chansons français d'origine corse (° 3 juillet 1886).
 29 mai : Juan Ramon Jimenez, poète espagnol (° 24 décembre 1881).
-30 mai : Lala Sukuna, homme politique fidjien (° 22 avril 1888).
-Juin
-3 juin : Marceau Pivert, socialiste français (° 2 octobre 1895).
+30 mai : Lala Sukuna, homme politique fidjien (° 22 avril 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 juin : Marceau Pivert, socialiste français (° 2 octobre 1895).
 9 juin : Robert Donat, acteur britannique (° 18 mars 1905).
 12 juin : Emily Wynne, artiste textile irlandaise et romancière (° 1872).
 16 juin :
@@ -615,17 +802,85 @@
 23 juin : Armas Järnefelt, compositeur et chef d'orchestre finlandais (° 14 août 1869).
 26 juin :
 Maurice de La Fuye, historien français (° 20 janvier 1886).
-Mario Pérouse, peintre français (° 18 mai 1880).
-Juillet
-3 juillet : Maurice Bardonneau, coureur cycliste français (° 22 mai 1885).
+Mario Pérouse, peintre français (° 18 mai 1880).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juillet : Maurice Bardonneau, coureur cycliste français (° 22 mai 1885).
 5 juillet : Vilhelm Wolfhagen, footballeur international danois (° 11 novembre 1889).
 6 juillet : Georges Gobo, peintre, illustrateur, lithographe et graveur français (° 19 juin 1876).
 8 juillet : Lucien Mainssieux, peintre, critique musical et graveur français (° 4 août 1885).
 9 juillet : Pearl Sindelar, actrice américaine (° 5 février 1887).
 12 juillet : Gudmund Schütte, philologue et historien danois (° 17 janvier 1872).
-26 juillet : Fernand Augereau, coureur cycliste français (° 23 novembre 1882).
-Août
-3 août : Peter Collins, pilote automobile britannique (° 6 novembre 1931).
+26 juillet : Fernand Augereau, coureur cycliste français (° 23 novembre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 août : Peter Collins, pilote automobile britannique (° 6 novembre 1931).
 12 août : André Bauchant, peintre français (° 24 avril 1873).
 14 août : Frédéric Joliot-Curie, physicien français, prix Nobel de chimie en 1935 (° 19 mars 1900).
 17 août : Florent Schmitt, compositeur français, (° 28 septembre 1870).
@@ -637,18 +892,86 @@
 27 août : Ernest Orlando Lawrence, physicien américain, prix Nobel de physique en 1939 (° 8 août 1901).
 31 août :
 Wanda Hanke, ethnologue autrichienne (° 9 décembre 1893).
-Gayne Whitman, acteur américain (° 19 mars 1890).
-Septembre
-1er septembre : Karl Wittig, coureur cycliste allemand (° 11 novembre 1890).
+Gayne Whitman, acteur américain (° 19 mars 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er septembre : Karl Wittig, coureur cycliste allemand (° 11 novembre 1890).
 3 septembre : Emmanuel Fougerat, peintre, conservateur de musée et historien d'art français (° 25 décembre 1869).
 5 septembre : Jeanne Darlays, cantatrice (° 2 mai 1874).
 7 septembre : Daniel Ouezzin Coulibaly, homme politique voltaïque (° 1er juillet 1909).
 9 septembre : Giovanni Micheletto, coureur cycliste italien (° 22 janvier 1889).
 13 septembre : Russell Mockridge, coureur cycliste australien (° 18 juillet 1928).
 28 septembre : Vassili Bakcheïev, peintre et enseignant russe puis soviétique (° 24 décembre 1862).
-29 septembre : Aarre Merikanto, compositeur et pédagogue finlandais (° 29 juin 1893).
-Octobre
-1er octobre : Robert Falk, peintre russe puis soviétique (° 27 octobre 1886).
+29 septembre : Aarre Merikanto, compositeur et pédagogue finlandais (° 29 juin 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre : Robert Falk, peintre russe puis soviétique (° 27 octobre 1886).
 7 octobre : « Saleri II » (Julián Sainz Martínez), matador espagnol (° 19 juin 1891).
 8 octobre : Frank Kramer, coureur cycliste américain (° 15 septembre 1880).
 9 octobre :
@@ -663,9 +986,43 @@
 Friedrich Kühne, acteur austro-allemand (° 24 avril 1870).
 19 octobre : Ferruccio Baruffi, peintre italien (° 23 mai 1889).
 25 octobre :  Lionello Balestrieri, peintre italien (° 12 septembre 1872).
-31 octobre :  Nikolaï Korjenevski, explorateur, géomorphologue et glaciologue soviétique (° 18 février 1879).
-Novembre
-1er novembre : Maria Jarema, peintre, sculptrice et scénographe polonaise (° 24 novembre 1908).
+31 octobre :  Nikolaï Korjenevski, explorateur, géomorphologue et glaciologue soviétique (° 18 février 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er novembre : Maria Jarema, peintre, sculptrice et scénographe polonaise (° 24 novembre 1908).
 3 novembre : Markus Feldmann, conseiller fédéral suisse (° 21 mai 1897).
 11 novembre : André Bazin, critique et théoricien de cinéma français (° 18 avril 1918).
 12 novembre : Henri Hoevenaers, coureur cycliste belge (° 1er mai 1902).
@@ -679,9 +1036,43 @@
 Shōhachi Kimura, peintre, critique d’art et essayiste japonais (° 21 août 1893).
 26 novembre : Marius de Buzon, peintre français (° 18 septembre 1879).
 27 novembre : Jeanne Demons, actrice canadienne (° 18 janvier 1886).
-30 novembre : Joseph-Jean Heintz, évêque catholique français (° 29 janvier 1886).
-Décembre
-1er décembre :
+30 novembre : Joseph-Jean Heintz, évêque catholique français (° 29 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Ferdiš Duša, peintre, graveur sur bois et céramiste austro-hongrois puis tchécoslovaque (° 13 janvier 1888).
 Elizabeth Peratrovich, militante des droits civiques américaine (° 4 juillet 1911).
 2 décembre : Jan Kok, footballeur international néerlandais (° 9 juillet 1889).
@@ -698,9 +1089,43 @@
 31 décembre :
 Albert-Georges Bessé, graveur et peintre français (° 1er mai 1871).
 Francis Jourdain, peintre, designer et dessinateur français (° 2 novembre 1876).
-Gudrun Ruud, zoologiste norvégienne (° 14 avril 1882).
-Date précise inconnue
-Marcel Amiguet, peintre et graveur suisse (° 1891).
+Gudrun Ruud, zoologiste norvégienne (° 14 avril 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1958</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1958</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Marcel Amiguet, peintre et graveur suisse (° 1891).
 Pierre-Laurent Baeschlin, peintre figuratif français (° 23 septembre 1886).
 Wacyf Boutros-Ghali, écrivain, diplomate et homme d'État égyptien (° 1878).
 Florentin Chauvet, peintre et sculpteur français (° 4 mars 1878).
